--- a/assignment1_stocks.xlsx
+++ b/assignment1_stocks.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.98</v>
+        <v>10.11</v>
       </c>
       <c r="C2" t="n">
         <v>11.08</v>
@@ -511,7 +511,7 @@
         <v>6.12</v>
       </c>
       <c r="E2" t="n">
-        <v>77.81999999999999</v>
+        <v>80.44</v>
       </c>
       <c r="F2" t="n">
         <v>11.08</v>
@@ -520,7 +520,7 @@
         <v>6.46</v>
       </c>
       <c r="H2" t="n">
-        <v>76.19</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
         <v>11.08</v>
@@ -529,10 +529,10 @@
         <v>8.76</v>
       </c>
       <c r="K2" t="n">
-        <v>52.59</v>
+        <v>58.19</v>
       </c>
       <c r="L2" t="n">
-        <v>68.87</v>
+        <v>72.55</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2399.2</v>
+        <v>2255</v>
       </c>
       <c r="C3" t="n">
         <v>2695</v>
@@ -551,28 +551,28 @@
         <v>2025.55</v>
       </c>
       <c r="E3" t="n">
-        <v>55.81</v>
+        <v>34.27</v>
       </c>
       <c r="F3" t="n">
         <v>2695</v>
       </c>
       <c r="G3" t="n">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="H3" t="n">
-        <v>33.83</v>
+        <v>2.65</v>
       </c>
       <c r="I3" t="n">
         <v>2501.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2267.14</v>
+        <v>2243</v>
       </c>
       <c r="K3" t="n">
-        <v>56.25</v>
+        <v>4.63</v>
       </c>
       <c r="L3" t="n">
-        <v>48.63</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1535.9</v>
+        <v>1563.4</v>
       </c>
       <c r="C4" t="n">
-        <v>1557.8</v>
+        <v>1575.5</v>
       </c>
       <c r="D4" t="n">
         <v>1110.42</v>
       </c>
       <c r="E4" t="n">
-        <v>95.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>1557.8</v>
+        <v>1575.5</v>
       </c>
       <c r="G4" t="n">
         <v>1340.6</v>
       </c>
       <c r="H4" t="n">
-        <v>89.92</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>1557.8</v>
+        <v>1575.5</v>
       </c>
       <c r="J4" t="n">
         <v>1470.1</v>
       </c>
       <c r="K4" t="n">
-        <v>75.03</v>
+        <v>88.52</v>
       </c>
       <c r="L4" t="n">
-        <v>86.68000000000001</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="5">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9007.5</v>
+        <v>9022.5</v>
       </c>
       <c r="C5" t="n">
         <v>9490</v>
@@ -631,7 +631,7 @@
         <v>6914.12</v>
       </c>
       <c r="E5" t="n">
-        <v>81.27</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>9490</v>
@@ -640,19 +640,19 @@
         <v>8491.5</v>
       </c>
       <c r="H5" t="n">
-        <v>51.68</v>
+        <v>53.18</v>
       </c>
       <c r="I5" t="n">
-        <v>9049</v>
+        <v>9254.5</v>
       </c>
       <c r="J5" t="n">
         <v>8605</v>
       </c>
       <c r="K5" t="n">
-        <v>90.65000000000001</v>
+        <v>64.28</v>
       </c>
       <c r="L5" t="n">
-        <v>74.53</v>
+        <v>66.44</v>
       </c>
     </row>
   </sheetData>
